--- a/sort/comp.xlsx
+++ b/sort/comp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13845" windowHeight="4245"/>
+    <workbookView windowWidth="13845" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>linear</t>
   </si>
@@ -33,16 +33,19 @@
   <si>
     <t>mergesort</t>
   </si>
+  <si>
+    <t>qsort</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,7 +65,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,45 +101,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,19 +117,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,6 +134,29 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,24 +177,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,7 +209,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,6 +245,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -230,19 +347,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,139 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,6 +400,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,21 +454,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -472,8 +471,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,19 +495,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,142 +505,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1398,7 +1401,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>qsort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1465,6 +1468,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>284972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3591689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43157949</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>501434341</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2653,8 +2674,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>517525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>196215</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>109855</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2663,7 +2684,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="517525" y="2863850"/>
-        <a:ext cx="4572000" cy="4133215"/>
+        <a:ext cx="4572000" cy="8247380"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2934,13 +2955,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="7" width="12" customWidth="1"/>
   </cols>
@@ -2970,27 +2991,27 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>B1*100</f>
+        <f t="shared" ref="B2:G2" si="0">B1*100</f>
         <v>1000</v>
       </c>
       <c r="C2">
-        <f>C1*100</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="D2">
-        <f>D1*100</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
       <c r="E2">
-        <f>E1*100</f>
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
       <c r="F2">
-        <f>F1*100</f>
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="G2">
-        <f>G1*100</f>
+        <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
     </row>
@@ -2999,27 +3020,27 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>B1*B1</f>
+        <f t="shared" ref="B3:G3" si="1">B1*B1</f>
         <v>100</v>
       </c>
       <c r="C3">
-        <f>C1*C1</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="D3">
-        <f>D1*D1</f>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="E3">
-        <f>E1*E1</f>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="F3">
-        <f>F1*F1</f>
+        <f t="shared" si="1"/>
         <v>10000000000</v>
       </c>
       <c r="G3">
-        <f>G1*G1</f>
+        <f t="shared" si="1"/>
         <v>1000000000000</v>
       </c>
     </row>
@@ -3028,27 +3049,27 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>B1*LOG(B1,2)</f>
+        <f t="shared" ref="B4:G4" si="2">B1*LOG(B1,2)</f>
         <v>33.2192809488736</v>
       </c>
       <c r="C4">
-        <f>C1*LOG(C1,2)</f>
+        <f t="shared" si="2"/>
         <v>664.385618977472</v>
       </c>
       <c r="D4">
-        <f>D1*LOG(D1,2)</f>
+        <f t="shared" si="2"/>
         <v>9965.78428466209</v>
       </c>
       <c r="E4">
-        <f>E1*LOG(E1,2)</f>
+        <f t="shared" si="2"/>
         <v>132877.123795494</v>
       </c>
       <c r="F4">
-        <f>F1*LOG(F1,2)</f>
+        <f t="shared" si="2"/>
         <v>1660964.04744368</v>
       </c>
       <c r="G4">
-        <f>G1*LOG(G1,2)</f>
+        <f t="shared" si="2"/>
         <v>19931568.5693242</v>
       </c>
     </row>
@@ -3119,6 +3140,29 @@
       </c>
       <c r="G7">
         <v>1161622822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1426</v>
+      </c>
+      <c r="C8">
+        <v>20373</v>
+      </c>
+      <c r="D8">
+        <v>284972</v>
+      </c>
+      <c r="E8">
+        <v>3591689</v>
+      </c>
+      <c r="F8">
+        <v>43157949</v>
+      </c>
+      <c r="G8">
+        <v>501434341</v>
       </c>
     </row>
   </sheetData>

--- a/sort/comp.xlsx
+++ b/sort/comp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>linear</t>
   </si>
@@ -36,16 +36,19 @@
   <si>
     <t>qsort</t>
   </si>
+  <si>
+    <t>stl</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,14 +68,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,26 +119,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,22 +135,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,14 +151,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,9 +187,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,21 +202,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -206,6 +209,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -215,13 +224,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +320,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,115 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,31 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,26 +403,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,6 +436,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -464,15 +485,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,156 +503,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1500,7 +1503,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>stl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1567,6 +1570,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>902482143</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2955,13 +2961,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="7" width="12" customWidth="1"/>
   </cols>
@@ -3165,6 +3171,14 @@
         <v>501434341</v>
       </c>
     </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>902482143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
